--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -513,6 +513,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -526,6 +529,18 @@
   </si>
   <si>
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
+  </si>
+  <si>
+    <t>@default</t>
+  </si>
+  <si>
+    <t>External ids for this request</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>rpNumber</t>
@@ -766,6 +781,27 @@
     <t>剤グループ内連番。</t>
   </si>
   <si>
+    <t>requestIdentifierCommon</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.11</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>requestIdentifier</t>
   </si>
   <si>
@@ -775,25 +811,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -999,9 +1017,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -2313,7 +2328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3699,7 +3714,7 @@
         <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>152</v>
@@ -3717,19 +3732,19 @@
         <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -3737,17 +3752,17 @@
         <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3762,13 +3777,13 @@
         <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3833,32 +3848,34 @@
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>88</v>
@@ -3873,7 +3890,7 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>170</v>
@@ -3881,7 +3898,9 @@
       <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3930,50 +3949,50 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3985,7 +4004,7 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>175</v>
@@ -3993,9 +4012,7 @@
       <c r="L15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -4032,40 +4049,40 @@
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4080,26 +4097,26 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>180</v>
@@ -4108,11 +4125,9 @@
         <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4136,43 +4151,43 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>81</v>
@@ -4181,18 +4196,18 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4209,25 +4224,25 @@
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4252,13 +4267,13 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -4276,7 +4291,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4297,18 +4312,18 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4316,7 +4331,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -4331,32 +4346,32 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>81</v>
@@ -4368,13 +4383,13 @@
         <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>81</v>
@@ -4392,7 +4407,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4413,18 +4428,18 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4447,30 +4462,32 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>81</v>
@@ -4506,7 +4523,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4527,18 +4544,18 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4546,7 +4563,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
@@ -4561,15 +4578,17 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4582,7 +4601,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4618,7 +4637,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4639,18 +4658,18 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4673,17 +4692,15 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4732,7 +4749,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4753,28 +4770,26 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>88</v>
@@ -4786,19 +4801,19 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4848,13 +4863,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4863,32 +4878,34 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>88</v>
@@ -4903,15 +4920,17 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4960,50 +4979,50 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
@@ -5015,7 +5034,7 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>175</v>
@@ -5023,9 +5042,7 @@
       <c r="L24" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -5062,40 +5079,40 @@
         <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5110,26 +5127,26 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>180</v>
@@ -5138,11 +5155,9 @@
         <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5166,43 +5181,43 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>81</v>
@@ -5211,18 +5226,18 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5239,25 +5254,25 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5282,13 +5297,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -5306,7 +5321,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5327,18 +5342,18 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5346,7 +5361,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5361,32 +5376,32 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>81</v>
@@ -5398,13 +5413,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5422,7 +5437,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5443,18 +5458,18 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5477,30 +5492,32 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>81</v>
@@ -5536,7 +5553,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5557,18 +5574,18 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5576,7 +5593,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
@@ -5591,15 +5608,17 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5612,7 +5631,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>81</v>
@@ -5648,7 +5667,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5669,18 +5688,18 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5703,17 +5722,15 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5762,7 +5779,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5783,22 +5800,20 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5807,7 +5822,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5816,19 +5831,19 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5878,13 +5893,13 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
@@ -5893,26 +5908,28 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5933,15 +5950,17 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5990,50 +6009,50 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -6045,7 +6064,7 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>175</v>
@@ -6053,9 +6072,7 @@
       <c r="L33" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -6092,40 +6109,40 @@
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AC33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -6140,26 +6157,26 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>180</v>
@@ -6168,11 +6185,9 @@
         <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6196,43 +6211,43 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
@@ -6241,18 +6256,18 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6269,25 +6284,25 @@
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6312,13 +6327,13 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -6336,7 +6351,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6357,18 +6372,18 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6376,7 +6391,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
@@ -6391,32 +6406,32 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6428,13 +6443,13 @@
         <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -6452,7 +6467,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6473,18 +6488,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6507,30 +6522,32 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6566,7 +6583,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6587,18 +6604,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6606,7 +6623,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
@@ -6621,15 +6638,17 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6642,7 +6661,7 @@
         <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>81</v>
@@ -6678,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6699,18 +6718,18 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6733,17 +6752,15 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K39" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6792,7 +6809,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6813,18 +6830,18 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6832,7 +6849,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>88</v>
@@ -6841,22 +6858,22 @@
         <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6882,13 +6899,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6906,10 +6923,10 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -6921,26 +6938,28 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6949,7 +6968,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6961,16 +6980,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6996,13 +7015,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -7020,13 +7039,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -7035,24 +7054,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7060,7 +7079,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>88</v>
@@ -7069,23 +7088,21 @@
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -7110,13 +7127,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -7134,10 +7151,10 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -7146,19 +7163,19 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7166,11 +7183,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7189,16 +7206,16 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7224,29 +7241,31 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7258,19 +7277,19 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7278,7 +7297,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7295,7 +7314,7 @@
         <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>89</v>
@@ -7304,15 +7323,17 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7336,13 +7357,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7360,7 +7381,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7375,24 +7396,24 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7409,24 +7430,26 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7450,13 +7473,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7474,7 +7497,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7495,18 +7518,18 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7514,7 +7537,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
@@ -7529,28 +7552,32 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -7586,7 +7613,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7607,18 +7634,18 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7641,16 +7668,16 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7664,7 +7691,7 @@
         <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>81</v>
@@ -7676,32 +7703,34 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7713,34 +7742,32 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
@@ -7755,17 +7782,15 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7790,13 +7815,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7814,10 +7839,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7829,24 +7854,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7854,7 +7879,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
@@ -7869,16 +7894,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7928,10 +7953,10 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7943,24 +7968,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>334</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7968,7 +7993,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
@@ -7977,22 +8002,22 @@
         <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8018,13 +8043,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -8042,10 +8067,10 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -8057,24 +8082,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8085,7 +8110,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -8097,16 +8122,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8132,13 +8157,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -8156,13 +8181,13 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
@@ -8171,16 +8196,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8188,7 +8213,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8205,21 +8230,23 @@
         <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8244,13 +8271,13 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -8268,10 +8295,10 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8283,24 +8310,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8311,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>81</v>
@@ -8320,19 +8347,19 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>361</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8358,13 +8385,11 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
@@ -8382,13 +8407,13 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
@@ -8397,16 +8422,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8414,7 +8439,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8434,19 +8459,19 @@
         <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8472,13 +8497,13 @@
         <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>81</v>
@@ -8496,7 +8521,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8511,16 +8536,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8528,7 +8553,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8545,22 +8570,22 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8586,11 +8611,13 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8608,7 +8635,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8623,13 +8650,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8640,7 +8667,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8660,20 +8687,18 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8722,7 +8747,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8743,10 +8768,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8754,7 +8779,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8762,10 +8787,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8774,19 +8799,19 @@
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8812,37 +8837,35 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
@@ -8851,35 +8874,37 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>396</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="C58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8888,19 +8913,19 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>398</v>
+        <v>195</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
+        <v>327</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8926,13 +8951,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8950,13 +8975,13 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
@@ -8965,24 +8990,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8990,10 +9015,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -9005,16 +9030,16 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>408</v>
+        <v>334</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9064,13 +9089,13 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
@@ -9079,24 +9104,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9107,7 +9132,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -9116,19 +9141,19 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>341</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9178,13 +9203,13 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
@@ -9193,24 +9218,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9230,19 +9255,19 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9292,7 +9317,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9307,16 +9332,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9324,7 +9349,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9332,7 +9357,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>88</v>
@@ -9347,18 +9372,16 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>154</v>
+        <v>357</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9406,7 +9429,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9421,24 +9444,24 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9458,19 +9481,19 @@
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>190</v>
+        <v>366</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9496,13 +9519,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9520,7 +9543,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9535,16 +9558,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>432</v>
+        <v>337</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9552,7 +9575,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9563,7 +9586,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9575,16 +9598,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9634,13 +9657,13 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
@@ -9649,16 +9672,16 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9666,7 +9689,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9677,7 +9700,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9686,19 +9709,19 @@
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>440</v>
+        <v>195</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9724,13 +9747,11 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -9748,13 +9769,13 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>81</v>
@@ -9763,13 +9784,13 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9780,7 +9801,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9791,7 +9812,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>81</v>
@@ -9803,16 +9824,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
+        <v>353</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9862,13 +9883,13 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>81</v>
@@ -9883,10 +9904,10 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9894,7 +9915,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9905,7 +9926,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9917,15 +9938,17 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>453</v>
+        <v>195</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9950,13 +9973,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9974,13 +9997,13 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
@@ -9989,24 +10012,24 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10017,7 +10040,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -10029,15 +10052,17 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10086,31 +10111,31 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10118,7 +10143,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10138,18 +10163,20 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>134</v>
+        <v>411</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10186,17 +10213,19 @@
         <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>178</v>
+        <v>409</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10208,16 +10237,16 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10228,11 +10257,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10250,18 +10277,20 @@
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>463</v>
+        <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10310,7 +10339,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10319,10 +10348,10 @@
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -10331,7 +10360,7 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10342,11 +10371,9 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10355,7 +10382,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10364,18 +10391,20 @@
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>81</v>
@@ -10424,7 +10453,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10433,19 +10462,19 @@
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10456,42 +10485,40 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>150</v>
+        <v>428</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
@@ -10540,28 +10567,28 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>430</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10572,7 +10599,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10595,16 +10622,16 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>453</v>
+        <v>195</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10630,13 +10657,13 @@
         <v>81</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>81</v>
@@ -10654,7 +10681,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10675,7 +10702,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10686,7 +10713,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10697,7 +10724,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>81</v>
@@ -10709,15 +10736,17 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
@@ -10766,28 +10795,28 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>172</v>
+        <v>438</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>173</v>
+        <v>443</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10798,11 +10827,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10821,16 +10850,16 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>175</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>149</v>
+        <v>448</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10880,7 +10909,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10892,16 +10921,16 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10912,11 +10941,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10929,26 +10958,24 @@
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>133</v>
+        <v>453</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10996,7 +11023,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -11008,7 +11035,7 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
@@ -11017,7 +11044,7 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>131</v>
+        <v>456</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11028,7 +11055,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11051,17 +11078,15 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11110,7 +11135,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11119,30 +11144,30 @@
         <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>488</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11165,17 +11190,15 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>492</v>
+        <v>174</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11224,7 +11247,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>491</v>
+        <v>177</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11236,7 +11259,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11245,7 +11268,7 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>495</v>
+        <v>178</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11256,7 +11279,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11267,7 +11290,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11279,17 +11302,15 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11326,31 +11347,29 @@
         <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>496</v>
+        <v>183</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>81</v>
@@ -11359,7 +11378,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11370,9 +11389,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11381,7 +11402,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
@@ -11393,20 +11414,16 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>219</v>
+        <v>468</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11454,28 +11471,28 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11486,9 +11503,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11509,13 +11528,13 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>170</v>
+        <v>473</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>171</v>
+        <v>474</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11566,19 +11585,19 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
@@ -11587,7 +11606,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11598,11 +11617,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>146</v>
+        <v>476</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11615,24 +11634,26 @@
         <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>175</v>
+        <v>477</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>176</v>
+        <v>478</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11668,19 +11689,19 @@
         <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>178</v>
+        <v>479</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11701,7 +11722,7 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11712,7 +11733,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11732,19 +11753,19 @@
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11794,7 +11815,7 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11803,7 +11824,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11815,18 +11836,18 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11846,27 +11867,23 @@
         <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>352</v>
+        <v>174</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>517</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P84" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>81</v>
       </c>
@@ -11910,7 +11927,7 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>521</v>
+        <v>177</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11919,10 +11936,10 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>81</v>
@@ -11931,29 +11948,29 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>522</v>
+        <v>178</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>81</v>
@@ -11965,16 +11982,16 @@
         <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>525</v>
+        <v>133</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>527</v>
+        <v>181</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>528</v>
+        <v>149</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12024,73 +12041,75 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>524</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>530</v>
+        <v>178</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>484</v>
+        <v>133</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12138,19 +12157,19 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>488</v>
+        <v>139</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12159,18 +12178,18 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>489</v>
+        <v>131</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12193,16 +12212,16 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12252,7 +12271,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12261,30 +12280,30 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>100</v>
+        <v>493</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12307,15 +12326,17 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>170</v>
+        <v>498</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>81</v>
@@ -12364,7 +12385,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>172</v>
+        <v>496</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -12376,7 +12397,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
@@ -12385,7 +12406,7 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>173</v>
+        <v>500</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12396,18 +12417,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>81</v>
@@ -12419,16 +12440,16 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>175</v>
+        <v>502</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>176</v>
+        <v>503</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
+        <v>492</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12466,31 +12487,31 @@
         <v>81</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>178</v>
+        <v>501</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
@@ -12499,7 +12520,7 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>173</v>
+        <v>500</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12510,7 +12531,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12530,22 +12551,22 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>544</v>
+        <v>224</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>81</v>
@@ -12594,7 +12615,7 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12612,21 +12633,21 @@
         <v>81</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12643,30 +12664,26 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>553</v>
+        <v>175</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>554</v>
+        <v>176</v>
       </c>
       <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>555</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P91" t="s" s="2">
-        <v>556</v>
-      </c>
+      <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>81</v>
       </c>
@@ -12686,13 +12703,13 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>557</v>
+        <v>81</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>558</v>
+        <v>81</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>81</v>
@@ -12710,7 +12727,7 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>559</v>
+        <v>177</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
@@ -12722,7 +12739,7 @@
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>81</v>
@@ -12731,29 +12748,29 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>560</v>
+        <v>178</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>561</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>81</v>
@@ -12762,27 +12779,27 @@
         <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>563</v>
+        <v>180</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>566</v>
+        <v>81</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>81</v>
@@ -12812,31 +12829,31 @@
         <v>81</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>567</v>
+        <v>183</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>81</v>
@@ -12845,18 +12862,18 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>568</v>
+        <v>178</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>569</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12879,24 +12896,24 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>574</v>
+        <v>81</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
@@ -12938,7 +12955,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12947,7 +12964,7 @@
         <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -12959,18 +12976,18 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>569</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12993,26 +13010,26 @@
         <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>108</v>
+        <v>357</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="Q94" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
@@ -13054,7 +13071,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13063,7 +13080,7 @@
         <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>100</v>
@@ -13075,18 +13092,18 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>585</v>
+        <v>527</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>569</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13109,16 +13126,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>588</v>
+        <v>531</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>348</v>
+        <v>533</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13168,7 +13185,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13186,21 +13203,21 @@
         <v>81</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>590</v>
+        <v>535</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>81</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13223,15 +13240,17 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>592</v>
+        <v>538</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>81</v>
@@ -13280,7 +13299,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13289,30 +13308,30 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>100</v>
+        <v>493</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>595</v>
+        <v>494</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13335,15 +13354,17 @@
         <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>170</v>
+        <v>541</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>81</v>
@@ -13392,7 +13413,7 @@
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>172</v>
+        <v>540</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -13404,16 +13425,16 @@
         <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>173</v>
+        <v>545</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
@@ -13424,18 +13445,18 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>81</v>
@@ -13447,7 +13468,7 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>175</v>
@@ -13455,9 +13476,7 @@
       <c r="L98" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M98" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>81</v>
@@ -13506,28 +13525,28 @@
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13538,11 +13557,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>471</v>
+        <v>146</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13555,26 +13574,24 @@
         <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>472</v>
+        <v>180</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>473</v>
+        <v>181</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>81</v>
       </c>
@@ -13610,19 +13627,19 @@
         <v>81</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>474</v>
+        <v>183</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
@@ -13643,7 +13660,7 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
@@ -13654,7 +13671,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13662,7 +13679,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>88</v>
@@ -13674,21 +13691,23 @@
         <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>190</v>
+        <v>549</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>592</v>
+        <v>550</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>81</v>
       </c>
@@ -13712,11 +13731,13 @@
         <v>81</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X100" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y100" t="s" s="2">
-        <v>602</v>
+        <v>81</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>81</v>
@@ -13734,10 +13755,10 @@
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13752,21 +13773,21 @@
         <v>81</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>604</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>605</v>
+        <v>557</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13783,28 +13804,30 @@
         <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>606</v>
+        <v>558</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="Q101" t="s" s="2">
         <v>81</v>
       </c>
@@ -13824,13 +13847,13 @@
         <v>81</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>81</v>
@@ -13848,7 +13871,7 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
@@ -13866,21 +13889,21 @@
         <v>81</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>611</v>
+        <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>613</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13900,27 +13923,27 @@
         <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>615</v>
+        <v>174</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>616</v>
+        <v>568</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>81</v>
+        <v>571</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>81</v>
@@ -13962,7 +13985,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13977,35 +14000,35 @@
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>618</v>
+        <v>81</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>611</v>
+        <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>81</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>575</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>621</v>
+        <v>81</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>
@@ -14014,27 +14037,27 @@
         <v>81</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>622</v>
+        <v>102</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>81</v>
@@ -14076,16 +14099,16 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -14097,18 +14120,18 @@
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>81</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14119,7 +14142,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>81</v>
@@ -14128,27 +14151,29 @@
         <v>81</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>628</v>
+        <v>108</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>81</v>
+        <v>588</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>81</v>
@@ -14190,13 +14215,13 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>81</v>
@@ -14205,18 +14230,1154 @@
         <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X110" s="2"/>
+      <c r="Y110" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL104" t="s" s="2">
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J114" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN104" t="s" s="2">
+      <c r="K114" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -531,18 +531,6 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>External ids for this request</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
     <t>rpNumber</t>
   </si>
   <si>
@@ -784,6 +772,15 @@
     <t>requestIdentifierCommon</t>
   </si>
   <si>
+    <t>External ids for this request</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -812,6 +809,9 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>@default</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -2328,7 +2328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3759,10 +3759,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3865,17 +3865,15 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>169</v>
       </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>88</v>
@@ -3890,17 +3888,15 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
         <v>172</v>
       </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3949,50 +3945,50 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -4004,15 +4000,17 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -4049,31 +4047,31 @@
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>81</v>
@@ -4082,7 +4080,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4093,41 +4091,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4151,43 +4151,43 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>81</v>
@@ -4196,18 +4196,18 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4224,25 +4224,25 @@
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4267,13 +4267,13 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -4291,7 +4291,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4312,18 +4312,18 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -4346,32 +4346,32 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>81</v>
@@ -4383,13 +4383,13 @@
         <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>81</v>
@@ -4407,7 +4407,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4428,18 +4428,18 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4462,32 +4462,30 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>81</v>
@@ -4523,7 +4521,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4544,18 +4542,18 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4563,7 +4561,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
@@ -4578,17 +4576,15 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4601,7 +4597,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4637,7 +4633,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4658,18 +4654,18 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4692,15 +4688,17 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4749,7 +4747,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4770,26 +4768,28 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>88</v>
@@ -4801,19 +4801,19 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4863,13 +4863,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4878,34 +4878,32 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>88</v>
@@ -4920,17 +4918,15 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4979,50 +4975,50 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
@@ -5034,15 +5030,17 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -5079,31 +5077,31 @@
         <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>81</v>
@@ -5112,7 +5110,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5123,41 +5121,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5181,43 +5181,43 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>81</v>
@@ -5226,18 +5226,18 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5254,25 +5254,25 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5297,13 +5297,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -5321,7 +5321,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5342,18 +5342,18 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5376,32 +5376,32 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>81</v>
@@ -5413,13 +5413,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5437,7 +5437,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5458,18 +5458,18 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5492,32 +5492,30 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>81</v>
@@ -5553,7 +5551,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5574,18 +5572,18 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5593,7 +5591,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
@@ -5608,17 +5606,15 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5631,7 +5627,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>81</v>
@@ -5667,7 +5663,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5688,18 +5684,18 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5722,15 +5718,17 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5779,7 +5777,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5800,20 +5798,22 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5831,19 +5831,19 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5893,13 +5893,13 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
@@ -5908,28 +5908,26 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>237</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5950,17 +5948,15 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -6009,50 +6005,50 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -6064,15 +6060,17 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -6109,31 +6107,31 @@
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -6142,7 +6140,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -6153,41 +6151,43 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6211,43 +6211,43 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
@@ -6256,18 +6256,18 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6284,25 +6284,25 @@
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6327,13 +6327,13 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -6351,7 +6351,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6372,18 +6372,18 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
@@ -6406,32 +6406,32 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6443,13 +6443,13 @@
         <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -6467,7 +6467,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6488,18 +6488,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6522,32 +6522,30 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6583,7 +6581,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6604,18 +6602,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6623,7 +6621,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
@@ -6638,17 +6636,15 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6661,7 +6657,7 @@
         <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>81</v>
@@ -6697,7 +6693,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6718,18 +6714,18 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6752,15 +6748,17 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6809,7 +6807,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6830,20 +6828,22 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
@@ -6861,19 +6861,19 @@
         <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6923,13 +6923,13 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6938,28 +6938,26 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>237</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6968,7 +6966,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6980,17 +6978,15 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -7039,50 +7035,50 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -7094,15 +7090,17 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -7139,31 +7137,31 @@
         <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>81</v>
@@ -7172,7 +7170,7 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -7183,41 +7181,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7241,43 +7241,43 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>81</v>
@@ -7286,18 +7286,18 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7314,25 +7314,25 @@
         <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -7357,13 +7357,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7381,7 +7381,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7402,18 +7402,18 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
@@ -7436,32 +7436,32 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>81</v>
@@ -7473,13 +7473,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7497,7 +7497,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7518,18 +7518,18 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7552,32 +7552,30 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -7613,7 +7611,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7634,18 +7632,18 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7653,7 +7651,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
@@ -7668,17 +7666,15 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7691,7 +7687,7 @@
         <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>81</v>
@@ -7727,7 +7723,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7748,18 +7744,18 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7782,15 +7778,17 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7839,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7860,20 +7858,22 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7891,19 +7891,19 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7953,13 +7953,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7968,24 +7968,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>237</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
@@ -8002,23 +8002,21 @@
         <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8043,13 +8041,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -8067,10 +8065,10 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -8079,19 +8077,19 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8099,18 +8097,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -8122,16 +8120,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8157,52 +8155,52 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>275</v>
+        <v>174</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -8213,7 +8211,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8221,7 +8219,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
@@ -8239,15 +8237,17 @@
         <v>108</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8271,13 +8271,13 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -8295,10 +8295,10 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8310,24 +8310,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8338,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>81</v>
@@ -8347,21 +8347,23 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K53" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8385,11 +8387,13 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
@@ -8407,13 +8411,13 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
@@ -8425,21 +8429,21 @@
         <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>291</v>
+        <v>189</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8462,18 +8466,20 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8485,7 +8491,7 @@
         <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>81</v>
@@ -8497,13 +8503,13 @@
         <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>81</v>
@@ -8521,7 +8527,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8536,24 +8542,24 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8561,7 +8567,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>88</v>
@@ -8570,22 +8576,22 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8599,7 +8605,7 @@
         <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>81</v>
@@ -8635,7 +8641,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8656,18 +8662,18 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8690,13 +8696,13 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8747,7 +8753,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8768,18 +8774,18 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8787,7 +8793,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>88</v>
@@ -8802,16 +8808,16 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8837,32 +8843,34 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>88</v>
@@ -8874,28 +8882,26 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>323</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8910,22 +8916,22 @@
         <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8951,13 +8957,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8975,7 +8981,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>88</v>
@@ -8990,24 +8996,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9015,7 +9021,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>88</v>
@@ -9027,19 +9033,19 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9065,13 +9071,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -9089,10 +9095,10 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>88</v>
@@ -9104,24 +9110,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9129,7 +9135,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>88</v>
@@ -9138,22 +9144,22 @@
         <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9179,13 +9185,13 @@
         <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>81</v>
@@ -9203,10 +9209,10 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -9218,24 +9224,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9258,16 +9264,16 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>350</v>
+        <v>191</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9293,13 +9299,11 @@
         <v>81</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>81</v>
@@ -9317,7 +9321,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9332,16 +9336,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9349,7 +9353,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9357,7 +9361,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>88</v>
@@ -9372,15 +9376,17 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
@@ -9405,13 +9411,13 @@
         <v>81</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>81</v>
@@ -9429,7 +9435,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9444,24 +9450,24 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9478,22 +9484,22 @@
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9543,7 +9549,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9558,16 +9564,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9575,7 +9581,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9595,20 +9601,18 @@
         <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9657,7 +9661,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9672,16 +9676,16 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9689,7 +9693,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9697,7 +9701,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>88</v>
@@ -9712,16 +9716,16 @@
         <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9749,30 +9753,30 @@
       <c r="W65" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="X65" s="2"/>
+      <c r="X65" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9784,32 +9788,34 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>88</v>
@@ -9821,19 +9827,19 @@
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>386</v>
+        <v>191</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9859,13 +9865,13 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -9883,10 +9889,10 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>88</v>
@@ -9898,24 +9904,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9923,10 +9929,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9935,19 +9941,19 @@
         <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9973,13 +9979,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9997,13 +10003,13 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
@@ -10012,24 +10018,24 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>401</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10040,7 +10046,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -10052,16 +10058,16 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10111,13 +10117,13 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
@@ -10126,24 +10132,24 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10163,19 +10169,19 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10225,7 +10231,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10240,16 +10246,16 @@
         <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10257,7 +10263,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10265,10 +10271,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10280,17 +10286,15 @@
         <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10339,13 +10343,13 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
@@ -10354,24 +10358,24 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10382,7 +10386,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10394,13 +10398,13 @@
         <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>353</v>
@@ -10453,13 +10457,13 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>81</v>
@@ -10468,16 +10472,16 @@
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10485,7 +10489,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10505,21 +10509,21 @@
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>154</v>
+        <v>372</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10567,7 +10571,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10582,16 +10586,16 @@
         <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10599,7 +10603,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10619,19 +10623,19 @@
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10659,11 +10663,9 @@
       <c r="W73" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="X73" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>81</v>
@@ -10681,7 +10683,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10696,13 +10698,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10713,7 +10715,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10724,7 +10726,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>81</v>
@@ -10736,13 +10738,13 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>353</v>
@@ -10795,13 +10797,13 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>81</v>
@@ -10810,16 +10812,16 @@
         <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10827,7 +10829,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10850,16 +10852,16 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>445</v>
+        <v>191</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10885,13 +10887,13 @@
         <v>81</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>81</v>
@@ -10909,7 +10911,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10924,24 +10926,24 @@
         <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10964,16 +10966,16 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11023,7 +11025,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -11038,16 +11040,16 @@
         <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11055,7 +11057,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11066,7 +11068,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11075,18 +11077,20 @@
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11135,13 +11139,13 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>81</v>
@@ -11150,13 +11154,13 @@
         <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
@@ -11167,7 +11171,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11178,7 +11182,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
@@ -11187,18 +11191,20 @@
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11247,19 +11253,19 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11268,7 +11274,7 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11279,7 +11285,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11299,18 +11305,20 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>133</v>
+        <v>420</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11347,17 +11355,19 @@
         <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB79" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>183</v>
+        <v>419</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11369,16 +11379,16 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11389,11 +11399,9 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11402,7 +11410,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
@@ -11411,19 +11419,21 @@
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>468</v>
+        <v>154</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11471,28 +11481,28 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>183</v>
+        <v>425</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11503,11 +11513,9 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11528,15 +11536,17 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>472</v>
+        <v>191</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>81</v>
@@ -11561,13 +11571,13 @@
         <v>81</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>81</v>
@@ -11585,19 +11595,19 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>183</v>
+        <v>431</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
@@ -11606,7 +11616,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11617,11 +11627,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11634,26 +11644,24 @@
         <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11701,7 +11709,7 @@
         <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11713,16 +11721,16 @@
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>131</v>
+        <v>443</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11733,7 +11741,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11744,7 +11752,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>81</v>
@@ -11756,16 +11764,16 @@
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11815,13 +11823,13 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>81</v>
@@ -11830,13 +11838,13 @@
         <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
@@ -11847,7 +11855,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11858,7 +11866,7 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>81</v>
@@ -11870,15 +11878,17 @@
         <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>174</v>
+        <v>453</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>175</v>
+        <v>454</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
@@ -11927,19 +11937,19 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>177</v>
+        <v>452</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>81</v>
@@ -11948,7 +11958,7 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
@@ -11959,18 +11969,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>81</v>
@@ -11982,17 +11992,15 @@
         <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>180</v>
+        <v>459</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>81</v>
@@ -12041,28 +12049,28 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>183</v>
+        <v>457</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>178</v>
+        <v>462</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
@@ -12073,43 +12081,39 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12157,19 +12161,19 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>479</v>
+        <v>173</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12178,7 +12182,7 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
@@ -12189,7 +12193,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12200,7 +12204,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>81</v>
@@ -12212,17 +12216,15 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>489</v>
+        <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>490</v>
+        <v>134</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>81</v>
@@ -12259,31 +12261,29 @@
         <v>81</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>488</v>
+        <v>179</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>493</v>
+        <v>139</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>81</v>
@@ -12292,20 +12292,22 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12314,7 +12316,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>81</v>
@@ -12326,17 +12328,15 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>81</v>
@@ -12385,19 +12385,19 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>496</v>
+        <v>179</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
@@ -12406,7 +12406,7 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12417,9 +12417,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B89" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12440,17 +12442,15 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>81</v>
@@ -12499,19 +12499,19 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>501</v>
+        <v>179</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
@@ -12520,7 +12520,7 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12531,42 +12531,42 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>507</v>
+        <v>149</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>508</v>
+        <v>150</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>81</v>
@@ -12615,28 +12615,28 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>510</v>
+        <v>131</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12670,15 +12670,17 @@
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>174</v>
+        <v>458</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>81</v>
@@ -12727,7 +12729,7 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>177</v>
+        <v>480</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
@@ -12739,7 +12741,7 @@
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>81</v>
@@ -12748,7 +12750,7 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>178</v>
+        <v>484</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
@@ -12759,18 +12761,18 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>81</v>
@@ -12782,17 +12784,15 @@
         <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>81</v>
@@ -12829,31 +12829,31 @@
         <v>81</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>81</v>
@@ -12862,7 +12862,7 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
@@ -12873,18 +12873,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>81</v>
@@ -12893,19 +12893,19 @@
         <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>514</v>
+        <v>176</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12955,19 +12955,19 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>517</v>
+        <v>179</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>81</v>
@@ -12976,58 +12976,58 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>519</v>
+        <v>174</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P94" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13071,19 +13071,19 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>81</v>
@@ -13092,18 +13092,18 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>527</v>
+        <v>131</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13126,16 +13126,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>533</v>
+        <v>492</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13185,7 +13185,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13194,30 +13194,30 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>493</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>536</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13240,13 +13240,13 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>492</v>
@@ -13299,7 +13299,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13308,10 +13308,10 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>81</v>
@@ -13320,18 +13320,18 @@
         <v>81</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13357,13 +13357,13 @@
         <v>497</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13413,7 +13413,7 @@
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -13431,10 +13431,10 @@
         <v>81</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>544</v>
+        <v>81</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
@@ -13445,7 +13445,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13468,16 +13468,20 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>175</v>
+        <v>505</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>81</v>
       </c>
@@ -13525,7 +13529,7 @@
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
@@ -13537,16 +13541,16 @@
         <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>178</v>
+        <v>510</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13557,18 +13561,18 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>81</v>
@@ -13580,17 +13584,15 @@
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>81</v>
@@ -13627,31 +13629,31 @@
         <v>81</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>81</v>
@@ -13660,7 +13662,7 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
@@ -13671,18 +13673,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>81</v>
@@ -13691,23 +13693,21 @@
         <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>549</v>
+        <v>133</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>550</v>
+        <v>176</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>551</v>
+        <v>177</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>81</v>
       </c>
@@ -13743,31 +13743,31 @@
         <v>81</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>554</v>
+        <v>179</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>81</v>
@@ -13776,18 +13776,18 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>555</v>
+        <v>174</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13804,30 +13804,28 @@
         <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>108</v>
+        <v>357</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P101" t="s" s="2">
-        <v>561</v>
-      </c>
+      <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
         <v>81</v>
       </c>
@@ -13847,13 +13845,13 @@
         <v>81</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>562</v>
+        <v>81</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>81</v>
@@ -13871,7 +13869,7 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
@@ -13880,7 +13878,7 @@
         <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>100</v>
@@ -13892,18 +13890,18 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>566</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>567</v>
+        <v>521</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13926,24 +13924,26 @@
         <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="Q102" t="s" s="2">
-        <v>571</v>
+        <v>81</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>81</v>
@@ -13985,7 +13985,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13994,7 +13994,7 @@
         <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>100</v>
@@ -14006,18 +14006,18 @@
         <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>574</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14037,27 +14037,27 @@
         <v>81</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>102</v>
+        <v>530</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>579</v>
+        <v>81</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>81</v>
@@ -14099,7 +14099,7 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
@@ -14108,7 +14108,7 @@
         <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>581</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
@@ -14117,21 +14117,21 @@
         <v>81</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>574</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>583</v>
+        <v>537</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14151,29 +14151,27 @@
         <v>81</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>108</v>
+        <v>489</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>584</v>
+        <v>538</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>81</v>
@@ -14215,7 +14213,7 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
@@ -14224,10 +14222,10 @@
         <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>100</v>
+        <v>493</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>81</v>
@@ -14236,18 +14234,18 @@
         <v>81</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>590</v>
+        <v>494</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>574</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14270,16 +14268,16 @@
         <v>81</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>593</v>
+        <v>541</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>353</v>
+        <v>543</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14329,7 +14327,7 @@
         <v>81</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>79</v>
@@ -14347,13 +14345,13 @@
         <v>81</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>81</v>
@@ -14361,7 +14359,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14384,13 +14382,13 @@
         <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>458</v>
+        <v>170</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>597</v>
+        <v>171</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>598</v>
+        <v>172</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14441,7 +14439,7 @@
         <v>81</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>596</v>
+        <v>173</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>79</v>
@@ -14453,16 +14451,16 @@
         <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>599</v>
+        <v>81</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>600</v>
+        <v>174</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>81</v>
@@ -14473,18 +14471,18 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>601</v>
+        <v>547</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>81</v>
@@ -14496,15 +14494,17 @@
         <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>81</v>
@@ -14541,31 +14541,31 @@
         <v>81</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>81</v>
@@ -14574,7 +14574,7 @@
         <v>81</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>81</v>
@@ -14585,18 +14585,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>602</v>
+        <v>548</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>81</v>
@@ -14605,21 +14605,23 @@
         <v>81</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>133</v>
+        <v>549</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>181</v>
+        <v>551</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>81</v>
       </c>
@@ -14667,19 +14669,19 @@
         <v>81</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>183</v>
+        <v>554</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>81</v>
@@ -14688,29 +14690,29 @@
         <v>81</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>178</v>
+        <v>555</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>81</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>603</v>
+        <v>557</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>81</v>
@@ -14722,24 +14724,24 @@
         <v>89</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="Q109" t="s" s="2">
         <v>81</v>
       </c>
@@ -14759,13 +14761,13 @@
         <v>81</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>81</v>
+        <v>563</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>81</v>
@@ -14783,19 +14785,19 @@
         <v>81</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>479</v>
+        <v>564</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>81</v>
@@ -14804,18 +14806,18 @@
         <v>81</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>131</v>
+        <v>565</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>81</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14823,7 +14825,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>88</v>
@@ -14835,27 +14837,27 @@
         <v>81</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
-        <v>81</v>
+        <v>571</v>
       </c>
       <c r="R110" t="s" s="2">
         <v>81</v>
@@ -14873,11 +14875,13 @@
         <v>81</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X110" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y110" t="s" s="2">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>81</v>
@@ -14895,10 +14899,10 @@
         <v>81</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>88</v>
@@ -14913,21 +14917,21 @@
         <v>81</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>599</v>
+        <v>81</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>609</v>
+        <v>574</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14947,27 +14951,27 @@
         <v>81</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>81</v>
@@ -14985,13 +14989,13 @@
         <v>81</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>614</v>
+        <v>81</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>615</v>
+        <v>81</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>81</v>
@@ -15009,7 +15013,7 @@
         <v>81</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>79</v>
@@ -15018,7 +15022,7 @@
         <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>100</v>
@@ -15027,21 +15031,21 @@
         <v>81</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>616</v>
+        <v>81</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>618</v>
+        <v>574</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15061,27 +15065,29 @@
         <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>620</v>
+        <v>108</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>81</v>
+        <v>588</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>81</v>
@@ -15123,7 +15129,7 @@
         <v>81</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>79</v>
@@ -15138,35 +15144,35 @@
         <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>623</v>
+        <v>81</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>616</v>
+        <v>81</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>81</v>
+        <v>574</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>626</v>
+        <v>81</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>81</v>
@@ -15178,16 +15184,16 @@
         <v>81</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>629</v>
+        <v>594</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>630</v>
+        <v>353</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15237,13 +15243,13 @@
         <v>81</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>81</v>
@@ -15258,10 +15264,10 @@
         <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>81</v>
@@ -15269,7 +15275,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15280,7 +15286,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>81</v>
@@ -15292,17 +15298,15 @@
         <v>81</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>633</v>
+        <v>458</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>81</v>
@@ -15351,13 +15355,13 @@
         <v>81</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>81</v>
@@ -15366,18 +15370,928 @@
         <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X118" s="2"/>
+      <c r="Y118" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="AK114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL114" t="s" s="2">
+      <c r="AK122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL122" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="AM114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AM122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>@default</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -2328,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN122"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7869,41 +7866,39 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B49" t="s" s="2">
         <v>257</v>
       </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7929,13 +7924,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7953,13 +7948,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7968,24 +7963,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8008,15 +8003,17 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8041,13 +8038,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -8065,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8077,16 +8074,16 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -8097,39 +8094,39 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8155,55 +8152,55 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8211,7 +8208,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8222,32 +8219,30 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8271,13 +8266,11 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -8295,13 +8288,13 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
@@ -8313,21 +8306,21 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8350,20 +8343,18 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8387,13 +8378,13 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
@@ -8411,7 +8402,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8426,24 +8417,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8460,26 +8451,24 @@
         <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8491,7 +8480,7 @@
         <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>81</v>
@@ -8527,7 +8516,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8548,18 +8537,18 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8567,7 +8556,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>88</v>
@@ -8582,17 +8571,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>81</v>
@@ -8605,7 +8592,7 @@
         <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>81</v>
@@ -8641,7 +8628,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8662,18 +8649,18 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8681,7 +8668,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>88</v>
@@ -8696,15 +8683,17 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8729,34 +8718,32 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>88</v>
@@ -8768,32 +8755,34 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>225</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>88</v>
@@ -8808,16 +8797,16 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8843,13 +8832,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8867,10 +8856,10 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>88</v>
@@ -8882,24 +8871,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>233</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8916,22 +8905,22 @@
         <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8957,13 +8946,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8981,7 +8970,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>88</v>
@@ -8996,24 +8985,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9036,16 +9025,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>270</v>
+        <v>343</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9071,13 +9060,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -9095,7 +9084,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9110,24 +9099,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9135,31 +9124,31 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>108</v>
+        <v>349</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>278</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9185,13 +9174,13 @@
         <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>81</v>
@@ -9209,13 +9198,13 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
@@ -9224,16 +9213,16 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9241,7 +9230,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9249,10 +9238,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9261,20 +9250,18 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>191</v>
+        <v>356</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9299,11 +9286,13 @@
         <v>81</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>81</v>
@@ -9321,13 +9310,13 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>81</v>
@@ -9336,24 +9325,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>291</v>
+        <v>361</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9376,16 +9365,16 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9411,13 +9400,13 @@
         <v>81</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>81</v>
@@ -9435,7 +9424,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9450,16 +9439,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9467,7 +9456,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9484,22 +9473,22 @@
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9549,7 +9538,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9564,16 +9553,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9581,7 +9570,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9604,15 +9593,17 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9637,13 +9628,11 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9661,7 +9650,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9676,13 +9665,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9693,7 +9682,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9701,7 +9690,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>88</v>
@@ -9713,19 +9702,19 @@
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>313</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9751,32 +9740,34 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AB65" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9788,37 +9779,35 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>81</v>
@@ -9827,19 +9816,19 @@
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>191</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9865,13 +9854,13 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -9889,13 +9878,13 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>81</v>
@@ -9904,24 +9893,24 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>323</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9929,10 +9918,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9941,19 +9930,19 @@
         <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10003,13 +9992,13 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
@@ -10018,24 +10007,24 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10046,7 +10035,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -10055,19 +10044,19 @@
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>344</v>
+        <v>412</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10117,13 +10106,13 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
@@ -10132,24 +10121,24 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10169,19 +10158,19 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10231,7 +10220,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10246,16 +10235,16 @@
         <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10263,7 +10252,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10271,10 +10260,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10286,15 +10275,17 @@
         <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10343,13 +10334,13 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
@@ -10358,24 +10349,24 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10398,18 +10389,18 @@
         <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>366</v>
+        <v>154</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10457,7 +10448,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10472,16 +10463,16 @@
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10489,7 +10480,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10512,16 +10503,16 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>372</v>
+        <v>191</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10547,13 +10538,13 @@
         <v>81</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>81</v>
@@ -10571,7 +10562,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10586,16 +10577,16 @@
         <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10603,7 +10594,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10614,7 +10605,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10623,19 +10614,19 @@
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10661,11 +10652,13 @@
         <v>81</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="X73" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y73" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>81</v>
@@ -10683,13 +10676,13 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
@@ -10698,13 +10691,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10715,7 +10708,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10726,7 +10719,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>81</v>
@@ -10738,16 +10731,16 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10797,13 +10790,13 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>81</v>
@@ -10812,16 +10805,16 @@
         <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10829,7 +10822,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10852,16 +10845,16 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>191</v>
+        <v>452</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10887,13 +10880,13 @@
         <v>81</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>81</v>
@@ -10911,7 +10904,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10926,24 +10919,24 @@
         <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10954,7 +10947,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
@@ -10966,17 +10959,15 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>81</v>
@@ -11025,13 +11016,13 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
@@ -11040,16 +11031,16 @@
         <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>265</v>
+        <v>460</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11057,7 +11048,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11068,7 +11059,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11077,20 +11068,18 @@
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>410</v>
+        <v>170</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11139,28 +11128,28 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>409</v>
+        <v>173</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>415</v>
+        <v>174</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
@@ -11171,7 +11160,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11191,20 +11180,18 @@
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>417</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11241,19 +11228,17 @@
         <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>416</v>
+        <v>179</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11265,7 +11250,7 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11274,7 +11259,7 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11285,9 +11270,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11305,20 +11292,18 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11367,7 +11352,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>419</v>
+        <v>179</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11376,19 +11361,19 @@
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11399,9 +11384,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11419,21 +11406,19 @@
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>154</v>
+        <v>471</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11481,28 +11466,28 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>425</v>
+        <v>179</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11513,41 +11498,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11571,13 +11558,13 @@
         <v>81</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>81</v>
@@ -11595,19 +11582,19 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
@@ -11616,7 +11603,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>437</v>
+        <v>131</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11627,7 +11614,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11638,7 +11625,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>81</v>
@@ -11650,16 +11637,16 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>353</v>
+        <v>482</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11709,13 +11696,13 @@
         <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>81</v>
@@ -11724,13 +11711,13 @@
         <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11741,7 +11728,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11752,7 +11739,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>81</v>
@@ -11764,17 +11751,15 @@
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>445</v>
+        <v>170</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>446</v>
+        <v>171</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>81</v>
@@ -11823,28 +11808,28 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>444</v>
+        <v>173</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>451</v>
+        <v>174</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
@@ -11855,11 +11840,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11878,16 +11863,16 @@
         <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>453</v>
+        <v>133</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>454</v>
+        <v>177</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>455</v>
+        <v>149</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11937,7 +11922,7 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>452</v>
+        <v>179</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11949,7 +11934,7 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>81</v>
@@ -11958,7 +11943,7 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>456</v>
+        <v>174</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
@@ -11969,39 +11954,43 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12049,28 +12038,28 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>462</v>
+        <v>131</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
@@ -12081,7 +12070,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12104,15 +12093,17 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>170</v>
+        <v>488</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>81</v>
@@ -12161,7 +12152,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>173</v>
+        <v>487</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12170,10 +12161,10 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
@@ -12182,18 +12173,18 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>174</v>
+        <v>493</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12204,7 +12195,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>81</v>
@@ -12216,15 +12207,17 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>133</v>
+        <v>496</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>134</v>
+        <v>497</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>81</v>
@@ -12261,29 +12254,31 @@
         <v>81</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB87" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>179</v>
+        <v>495</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>81</v>
@@ -12292,7 +12287,7 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12303,11 +12298,9 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12316,7 +12309,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>81</v>
@@ -12328,15 +12321,17 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>81</v>
@@ -12385,19 +12380,19 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>179</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
@@ -12406,7 +12401,7 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12417,11 +12412,9 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12442,16 +12435,20 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>472</v>
+        <v>220</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>81</v>
       </c>
@@ -12499,28 +12496,28 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>179</v>
+        <v>503</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12531,43 +12528,39 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>477</v>
+        <v>171</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12615,19 +12608,19 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>479</v>
+        <v>173</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
@@ -12636,7 +12629,7 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12647,18 +12640,18 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>81</v>
@@ -12670,16 +12663,16 @@
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>481</v>
+        <v>176</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>482</v>
+        <v>177</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>483</v>
+        <v>149</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12717,31 +12710,31 @@
         <v>81</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>81</v>
@@ -12750,7 +12743,7 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>484</v>
+        <v>174</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
@@ -12761,7 +12754,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12781,18 +12774,20 @@
         <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>171</v>
+        <v>513</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>81</v>
@@ -12841,7 +12836,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>173</v>
+        <v>516</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12850,10 +12845,10 @@
         <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>81</v>
@@ -12862,29 +12857,29 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>174</v>
+        <v>518</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>81</v>
@@ -12893,25 +12888,27 @@
         <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>176</v>
+        <v>521</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="Q93" t="s" s="2">
         <v>81</v>
       </c>
@@ -12955,19 +12952,19 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>179</v>
+        <v>525</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>81</v>
@@ -12976,54 +12973,52 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>174</v>
+        <v>526</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>133</v>
+        <v>529</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13071,39 +13066,39 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>131</v>
+        <v>534</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>81</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13126,16 +13121,16 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13185,7 +13180,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13197,27 +13192,27 @@
         <v>144</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="AM95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13240,16 +13235,16 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13299,7 +13294,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13317,10 +13312,10 @@
         <v>81</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>81</v>
+        <v>543</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
@@ -13331,7 +13326,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13354,17 +13349,15 @@
         <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>497</v>
+        <v>170</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>502</v>
+        <v>171</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>81</v>
@@ -13413,7 +13406,7 @@
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>501</v>
+        <v>173</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -13425,7 +13418,7 @@
         <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>81</v>
@@ -13434,7 +13427,7 @@
         <v>81</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>500</v>
+        <v>174</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
@@ -13445,18 +13438,18 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>81</v>
@@ -13468,20 +13461,18 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>506</v>
+        <v>177</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>81</v>
       </c>
@@ -13517,40 +13508,40 @@
         <v>81</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>504</v>
+        <v>179</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>510</v>
+        <v>174</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13561,7 +13552,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13581,19 +13572,23 @@
         <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>170</v>
+        <v>548</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>171</v>
+        <v>549</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>81</v>
       </c>
@@ -13641,7 +13636,7 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>173</v>
+        <v>553</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
@@ -13653,7 +13648,7 @@
         <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>81</v>
@@ -13662,56 +13657,58 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>174</v>
+        <v>554</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>81</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>176</v>
+        <v>557</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="Q100" t="s" s="2">
         <v>81</v>
       </c>
@@ -13731,43 +13728,43 @@
         <v>81</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>179</v>
+        <v>563</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>81</v>
@@ -13776,18 +13773,18 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>174</v>
+        <v>564</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>81</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>566</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13810,24 +13807,24 @@
         <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>357</v>
+        <v>170</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>81</v>
+        <v>570</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>81</v>
@@ -13869,7 +13866,7 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
@@ -13878,7 +13875,7 @@
         <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>100</v>
@@ -13890,18 +13887,18 @@
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>519</v>
+        <v>572</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>520</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13924,26 +13921,24 @@
         <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P102" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>81</v>
+        <v>578</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>81</v>
@@ -13985,7 +13980,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13994,7 +13989,7 @@
         <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>100</v>
@@ -14006,18 +14001,18 @@
         <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>527</v>
+        <v>581</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>529</v>
+        <v>582</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14037,27 +14032,29 @@
         <v>81</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>530</v>
+        <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>531</v>
+        <v>583</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>532</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>81</v>
@@ -14099,7 +14096,7 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
@@ -14117,21 +14114,21 @@
         <v>81</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>536</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14154,16 +14151,16 @@
         <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>489</v>
+        <v>591</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>538</v>
+        <v>592</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>492</v>
+        <v>352</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14213,7 +14210,7 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
@@ -14222,10 +14219,10 @@
         <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>81</v>
@@ -14234,18 +14231,18 @@
         <v>81</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>540</v>
+        <v>595</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14268,17 +14265,15 @@
         <v>81</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>81</v>
@@ -14327,7 +14322,7 @@
         <v>81</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>540</v>
+        <v>595</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>79</v>
@@ -14345,10 +14340,10 @@
         <v>81</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>544</v>
+        <v>598</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>545</v>
+        <v>599</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>81</v>
@@ -14359,7 +14354,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>600</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14471,7 +14466,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14541,16 +14536,16 @@
         <v>81</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE107" t="s" s="2">
         <v>179</v>
@@ -14585,42 +14580,42 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>548</v>
+        <v>602</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>549</v>
+        <v>133</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>552</v>
+        <v>149</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>553</v>
+        <v>150</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>81</v>
@@ -14669,19 +14664,19 @@
         <v>81</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>554</v>
+        <v>478</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>81</v>
@@ -14690,18 +14685,18 @@
         <v>81</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>555</v>
+        <v>131</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14709,7 +14704,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>88</v>
@@ -14718,30 +14713,28 @@
         <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P109" t="s" s="2">
-        <v>561</v>
-      </c>
+      <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
         <v>81</v>
       </c>
@@ -14761,13 +14754,11 @@
         <v>81</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>81</v>
@@ -14785,10 +14776,10 @@
         <v>81</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>88</v>
@@ -14803,21 +14794,21 @@
         <v>81</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>565</v>
+        <v>607</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>566</v>
+        <v>608</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14837,27 +14828,27 @@
         <v>81</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
-        <v>571</v>
+        <v>81</v>
       </c>
       <c r="R110" t="s" s="2">
         <v>81</v>
@@ -14875,13 +14866,13 @@
         <v>81</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>81</v>
+        <v>613</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>81</v>
+        <v>614</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>81</v>
@@ -14899,7 +14890,7 @@
         <v>81</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>79</v>
@@ -14917,21 +14908,21 @@
         <v>81</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>81</v>
+        <v>615</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>574</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14951,27 +14942,27 @@
         <v>81</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>102</v>
+        <v>619</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
-        <v>579</v>
+        <v>81</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>81</v>
@@ -15013,7 +15004,7 @@
         <v>81</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>79</v>
@@ -15022,41 +15013,41 @@
         <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>581</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>81</v>
+        <v>622</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>81</v>
+        <v>615</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>574</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>583</v>
+        <v>624</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>81</v>
+        <v>625</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>81</v>
@@ -15065,29 +15056,27 @@
         <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>108</v>
+        <v>626</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>81</v>
@@ -15129,13 +15118,13 @@
         <v>81</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>81</v>
@@ -15150,18 +15139,18 @@
         <v>81</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>574</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15172,7 +15161,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>81</v>
@@ -15184,16 +15173,16 @@
         <v>81</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>353</v>
+        <v>635</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15243,13 +15232,13 @@
         <v>81</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>81</v>
@@ -15258,1040 +15247,18 @@
         <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X118" s="2"/>
-      <c r="Y118" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN122" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
@@ -513,9 +513,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -1014,6 +1011,9 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -3711,7 +3711,7 @@
         <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>152</v>
@@ -3729,19 +3729,19 @@
         <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -3749,7 +3749,7 @@
         <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>81</v>
@@ -3774,13 +3774,13 @@
         <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3845,24 +3845,24 @@
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3885,13 +3885,13 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3942,28 +3942,28 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4000,10 +4000,10 @@
         <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>149</v>
@@ -4047,7 +4047,7 @@
         <v>136</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>81</v>
@@ -4056,7 +4056,7 @@
         <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4077,7 +4077,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4114,16 +4114,16 @@
         <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -4148,31 +4148,31 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4193,7 +4193,7 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4227,19 +4227,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4264,31 +4264,31 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4309,18 +4309,18 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4346,65 +4346,65 @@
         <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s" s="2">
+      <c r="T18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4425,18 +4425,18 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4459,16 +4459,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4482,43 +4482,43 @@
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4539,18 +4539,18 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4573,13 +4573,13 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4630,7 +4630,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4651,18 +4651,18 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4685,16 +4685,16 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4744,7 +4744,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4765,13 +4765,13 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="22">
@@ -4779,7 +4779,7 @@
         <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>81</v>
@@ -4804,13 +4804,13 @@
         <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4875,24 +4875,24 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4915,13 +4915,13 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4972,28 +4972,28 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5030,10 +5030,10 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>149</v>
@@ -5077,7 +5077,7 @@
         <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>81</v>
@@ -5086,7 +5086,7 @@
         <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5107,7 +5107,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5144,16 +5144,16 @@
         <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -5178,31 +5178,31 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5223,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5257,19 +5257,19 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5294,31 +5294,31 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5339,18 +5339,18 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5376,65 +5376,65 @@
         <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="M27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5455,18 +5455,18 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5489,16 +5489,16 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5512,43 +5512,43 @@
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5569,18 +5569,18 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5603,13 +5603,13 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5660,7 +5660,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5681,18 +5681,18 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5715,16 +5715,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5774,7 +5774,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5795,13 +5795,13 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -5809,7 +5809,7 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
@@ -5834,13 +5834,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5905,24 +5905,24 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5945,13 +5945,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -6002,28 +6002,28 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6060,10 +6060,10 @@
         <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>149</v>
@@ -6107,7 +6107,7 @@
         <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
@@ -6116,7 +6116,7 @@
         <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -6137,7 +6137,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6174,16 +6174,16 @@
         <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
@@ -6208,31 +6208,31 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6253,7 +6253,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6287,19 +6287,19 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6324,31 +6324,31 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6369,18 +6369,18 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6406,65 +6406,65 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6485,18 +6485,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6519,16 +6519,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6542,43 +6542,43 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6599,18 +6599,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6633,13 +6633,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6690,7 +6690,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6711,18 +6711,18 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6745,16 +6745,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6804,7 +6804,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6825,13 +6825,13 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="40">
@@ -6839,7 +6839,7 @@
         <v>152</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>81</v>
@@ -6864,13 +6864,13 @@
         <v>154</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6935,24 +6935,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6975,13 +6975,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7032,28 +7032,28 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7090,10 +7090,10 @@
         <v>133</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>149</v>
@@ -7137,7 +7137,7 @@
         <v>136</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>81</v>
@@ -7146,7 +7146,7 @@
         <v>137</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -7167,7 +7167,7 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7204,16 +7204,16 @@
         <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7238,31 +7238,31 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7283,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7317,19 +7317,19 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -7354,31 +7354,31 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X44" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X44" t="s" s="2">
+      <c r="Y44" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7399,18 +7399,18 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7436,65 +7436,65 @@
         <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="M45" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7515,18 +7515,18 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7549,16 +7549,16 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7572,43 +7572,43 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7629,18 +7629,18 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7663,13 +7663,13 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7720,7 +7720,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7741,18 +7741,18 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7775,16 +7775,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7834,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7855,18 +7855,18 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7892,13 +7892,13 @@
         <v>108</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7924,14 +7924,14 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -7963,16 +7963,16 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8003,16 +8003,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8038,14 +8038,14 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8077,13 +8077,13 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8120,13 +8120,13 @@
         <v>108</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8152,14 +8152,14 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>88</v>
@@ -8191,16 +8191,16 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8208,7 +8208,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8231,16 +8231,16 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -8288,7 +8288,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8306,13 +8306,13 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8320,7 +8320,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8346,13 +8346,13 @@
         <v>108</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8378,14 +8378,14 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8417,16 +8417,16 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8457,16 +8457,16 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8516,7 +8516,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8537,7 +8537,7 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8571,13 +8571,13 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8628,7 +8628,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8649,7 +8649,7 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8683,16 +8683,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8718,29 +8718,29 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>88</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>323</v>
@@ -8797,7 +8797,7 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>324</v>
@@ -8856,7 +8856,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>88</v>
@@ -9102,7 +9102,7 @@
         <v>344</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>345</v>
@@ -9593,7 +9593,7 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>378</v>
@@ -9628,7 +9628,7 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
@@ -9819,7 +9819,7 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>391</v>
@@ -9854,7 +9854,7 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>394</v>
@@ -10010,7 +10010,7 @@
         <v>406</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>407</v>
@@ -10503,7 +10503,7 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>431</v>
@@ -10538,7 +10538,7 @@
         <v>81</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>434</v>
@@ -11071,7 +11071,7 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>463</v>
@@ -11128,28 +11128,28 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
@@ -11238,7 +11238,7 @@
         <v>137</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11352,7 +11352,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11466,7 +11466,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11751,13 +11751,13 @@
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11808,28 +11808,28 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
@@ -11866,10 +11866,10 @@
         <v>133</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>149</v>
@@ -11922,7 +11922,7 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11943,7 +11943,7 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
@@ -12435,7 +12435,7 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>504</v>
@@ -12551,13 +12551,13 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12608,28 +12608,28 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12666,10 +12666,10 @@
         <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>149</v>
@@ -12713,7 +12713,7 @@
         <v>136</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>81</v>
@@ -12722,7 +12722,7 @@
         <v>137</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
@@ -12743,7 +12743,7 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
@@ -13349,13 +13349,13 @@
         <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13406,28 +13406,28 @@
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
@@ -13464,10 +13464,10 @@
         <v>133</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>149</v>
@@ -13511,7 +13511,7 @@
         <v>136</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>81</v>
@@ -13520,7 +13520,7 @@
         <v>137</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
@@ -13541,7 +13541,7 @@
         <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13728,7 +13728,7 @@
         <v>81</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>561</v>
@@ -13807,7 +13807,7 @@
         <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>567</v>
@@ -14377,13 +14377,13 @@
         <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14434,28 +14434,28 @@
         <v>81</v>
       </c>
       <c r="AE106" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>81</v>
@@ -14492,10 +14492,10 @@
         <v>133</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>149</v>
@@ -14548,7 +14548,7 @@
         <v>81</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>79</v>
@@ -14569,7 +14569,7 @@
         <v>81</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>81</v>
@@ -14719,7 +14719,7 @@
         <v>81</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>596</v>
@@ -14831,7 +14831,7 @@
         <v>81</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>610</v>
@@ -14866,7 +14866,7 @@
         <v>81</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X110" t="s" s="2">
         <v>613</v>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
@@ -769,10 +769,10 @@
     <t>requestIdentifierCommon</t>
   </si>
   <si>
-    <t>External ids for this request</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>処方箋に対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -802,7 +802,7 @@
     <t>処方オーダに対するID</t>
   </si>
   <si>
-    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>薬剤をオーダする単位としての処方依頼に対するID。MedicationRequestは単一の薬剤でインスタンスが作成される。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
